--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD4_Countries_150520.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD4_Countries_150520.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DRE\cap08-BasesDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\cap08-BasesDeDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -116,9 +116,6 @@
     <t>IPT-PV Activity</t>
   </si>
   <si>
-    <t>Booleano</t>
-  </si>
-  <si>
     <t>Y/N</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>3 caracteres</t>
+  </si>
+  <si>
+    <t>Boolean</t>
   </si>
 </sst>
 </file>
@@ -723,7 +723,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +778,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>16</v>
@@ -872,23 +872,23 @@
         <v>28</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>7</v>
@@ -898,54 +898,54 @@
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="D9" s="14">
         <v>3</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="13">
         <v>3</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>7</v>
@@ -956,13 +956,13 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>7</v>
@@ -973,13 +973,13 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>7</v>
@@ -990,7 +990,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">

--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD4_Countries_150520.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD4_Countries_150520.xlsx
@@ -370,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -438,6 +438,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -723,7 +735,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G13" sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +792,7 @@
       <c r="F2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -799,7 +811,7 @@
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="24" t="s">
         <v>18</v>
       </c>
     </row>
@@ -820,7 +832,7 @@
       <c r="F4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="25" t="s">
         <v>21</v>
       </c>
     </row>
@@ -841,7 +853,7 @@
       <c r="F5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="24" t="s">
         <v>24</v>
       </c>
     </row>
@@ -862,7 +874,7 @@
       <c r="F6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -881,7 +893,7 @@
         <v>46</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -900,7 +912,7 @@
       <c r="F8" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -919,7 +931,7 @@
       <c r="F9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="24" t="s">
         <v>36</v>
       </c>
     </row>
@@ -938,7 +950,7 @@
       <c r="F10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="24" t="s">
         <v>39</v>
       </c>
     </row>
@@ -955,7 +967,7 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="25" t="s">
         <v>41</v>
       </c>
     </row>
@@ -972,7 +984,7 @@
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -989,7 +1001,7 @@
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="24" t="s">
         <v>45</v>
       </c>
     </row>
